--- a/cmip6/responsible_parties/cmip6_as-rcec_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_as-rcec_responsible_parties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA8D93-E539-0143-AC4B-6DF10DC868EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1746,7 +1746,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1800,8 +1800,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
